--- a/surveySummary.xlsx
+++ b/surveySummary.xlsx
@@ -5,19 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0122444\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0000707\OneDrive - Transnet\6. ALU\14. I&amp;I\Innovation-and-Intrapreneurship\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$1</definedName>
+    <definedName name="_xlchart.0" hidden="1">Sheet1!$B$13</definedName>
+    <definedName name="_xlchart.1" hidden="1">Sheet1!$C$13:$K$13</definedName>
+    <definedName name="_xlchart.2" hidden="1">Sheet1!$C$1:$K$12</definedName>
+    <definedName name="_xlchart.3" hidden="1">Sheet1!$B$13</definedName>
+    <definedName name="_xlchart.4" hidden="1">Sheet1!$C$13:$K$13</definedName>
+    <definedName name="_xlchart.5" hidden="1">Sheet1!$C$1:$K$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="46">
   <si>
     <t>Transport method</t>
   </si>
@@ -144,12 +150,33 @@
   </si>
   <si>
     <t>I take the Gautrain (which is on strike).</t>
+  </si>
+  <si>
+    <t>Feel safe at work? (Yes)</t>
+  </si>
+  <si>
+    <t>Security risk at building? (Yes)</t>
+  </si>
+  <si>
+    <t>Involved in incident? (Yes)</t>
+  </si>
+  <si>
+    <t>Opurtunistic/organised? (Opotunistic)</t>
+  </si>
+  <si>
+    <t>Current steps effective? (Yes)</t>
+  </si>
+  <si>
+    <t>Employer responsible for safety? (Yes)</t>
+  </si>
+  <si>
+    <t>Will monitoring help? (Yes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,10 +214,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,6 +236,977 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Interview Response analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$17:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Feel safe at work? (Yes)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Security risk at building? (Yes)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Involved in incident? (Yes)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Opurtunistic/organised? (Opotunistic)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Current steps effective? (Yes)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Employer responsible for safety? (Yes)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Will monitoring help? (Yes)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.45454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D375-48B9-97EC-DFF5A379946B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
+        <c:axId val="1147655839"/>
+        <c:axId val="1147656255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1147655839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147656255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1147656255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147655839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,16 +1472,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -982,8 +1982,66 @@
         <v>9.0909090909090939E-2</v>
       </c>
     </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>